--- a/src/main/resources/template/bgglg-excel.xlsx
+++ b/src/main/resources/template/bgglg-excel.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Lý do nghỉ</t>
   </si>
@@ -326,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -409,9 +409,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1062,7 +1059,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
@@ -1090,7 +1087,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2833,7 +2830,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="30.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2968,7 +2965,9 @@
       <c r="D6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2988,7 +2987,7 @@
       <c r="B7" s="26"/>
       <c r="C7" s="31"/>
       <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>

--- a/src/main/resources/template/bgglg-excel.xlsx
+++ b/src/main/resources/template/bgglg-excel.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Lý do nghỉ</t>
   </si>
@@ -66,27 +66,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Tổng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        </t>
-  </si>
-  <si>
-    <t>Kế toán</t>
-  </si>
-  <si>
-    <t>Giám Sát</t>
-  </si>
-  <si>
-    <t>Nhà Bếp</t>
-  </si>
-  <si>
-    <t>Người lập bảng</t>
-  </si>
-  <si>
-    <t>Nguyễn Công Lương</t>
-  </si>
-  <si>
     <t>BÁO CÁO NGHỈ HÀNG NGÀY</t>
   </si>
   <si>
@@ -106,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,19 +117,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -197,39 +163,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -307,70 +243,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,32 +276,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -996,13 +889,13 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1018,13 +911,13 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1040,11 +933,11 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -1060,19 +953,19 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1088,11 +981,11 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1108,10 +1001,10 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1122,16 +1015,12 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1142,16 +1031,12 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1162,17 +1047,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1182,16 +1063,12 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1201,16 +1078,12 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1220,16 +1093,12 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1239,16 +1108,12 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1258,16 +1123,12 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1277,16 +1138,12 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1296,16 +1153,12 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1315,16 +1168,12 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1334,16 +1183,12 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1353,16 +1198,12 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1372,36 +1213,28 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" s="10" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
+    </row>
+    <row r="22" spans="1:14" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1411,16 +1244,12 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="4"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1430,16 +1259,12 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="4"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1449,16 +1274,12 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="4"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1468,16 +1289,12 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1487,16 +1304,12 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="4"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1506,16 +1319,12 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="4"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1525,16 +1334,12 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="4"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1544,16 +1349,12 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="4"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1563,16 +1364,12 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="4"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1582,16 +1379,12 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="4"/>
+    </row>
+    <row r="33" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1601,16 +1394,12 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="4"/>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1620,16 +1409,12 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="4"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1639,16 +1424,12 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="4"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1658,16 +1439,12 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="4"/>
+    </row>
+    <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1677,16 +1454,12 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="4"/>
+    </row>
+    <row r="38" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1696,16 +1469,12 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="4"/>
+    </row>
+    <row r="39" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1715,16 +1484,12 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="4"/>
+    </row>
+    <row r="40" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1734,16 +1499,12 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="4"/>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1753,16 +1514,12 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="4"/>
+    </row>
+    <row r="42" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1772,16 +1529,12 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="4"/>
+    </row>
+    <row r="43" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1791,16 +1544,12 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="4"/>
+    </row>
+    <row r="44" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1810,16 +1559,12 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="4"/>
+    </row>
+    <row r="45" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1829,16 +1574,12 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="4"/>
+    </row>
+    <row r="46" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1848,16 +1589,12 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="4"/>
+    </row>
+    <row r="47" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1867,16 +1604,12 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="4"/>
+    </row>
+    <row r="48" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1886,16 +1619,12 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-    </row>
-    <row r="49" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="4"/>
+    </row>
+    <row r="49" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1905,16 +1634,12 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-    </row>
-    <row r="50" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="4"/>
+    </row>
+    <row r="50" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1924,16 +1649,12 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-    </row>
-    <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="8"/>
+    </row>
+    <row r="51" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -1943,16 +1664,12 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="8"/>
+    </row>
+    <row r="52" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -1962,16 +1679,12 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-    </row>
-    <row r="53" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="8"/>
+    </row>
+    <row r="53" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1981,16 +1694,12 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-    </row>
-    <row r="54" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="8"/>
+    </row>
+    <row r="54" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2000,16 +1709,12 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-    </row>
-    <row r="55" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="8"/>
+    </row>
+    <row r="55" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -2019,16 +1724,12 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-    </row>
-    <row r="56" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="8"/>
+    </row>
+    <row r="56" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -2038,16 +1739,12 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="8"/>
+    </row>
+    <row r="57" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -2057,16 +1754,12 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-    </row>
-    <row r="58" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="8"/>
+    </row>
+    <row r="58" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -2076,16 +1769,12 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-    </row>
-    <row r="59" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="8"/>
+    </row>
+    <row r="59" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -2095,16 +1784,12 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-    </row>
-    <row r="60" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="8"/>
+    </row>
+    <row r="60" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -2114,16 +1799,12 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-    </row>
-    <row r="61" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="8"/>
+    </row>
+    <row r="61" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -2133,16 +1814,12 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-    </row>
-    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="8"/>
+    </row>
+    <row r="62" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -2152,16 +1829,12 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-    </row>
-    <row r="63" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="8"/>
+    </row>
+    <row r="63" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -2171,16 +1844,12 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-    </row>
-    <row r="64" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="8"/>
+    </row>
+    <row r="64" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -2190,16 +1859,12 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-    </row>
-    <row r="65" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="8"/>
+    </row>
+    <row r="65" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -2209,16 +1874,12 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-    </row>
-    <row r="66" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="17"/>
+    </row>
+    <row r="66" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -2228,16 +1889,12 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-    </row>
-    <row r="67" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="8"/>
+    </row>
+    <row r="67" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -2247,16 +1904,12 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-    </row>
-    <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="8"/>
+    </row>
+    <row r="68" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -2266,16 +1919,12 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="8"/>
+    </row>
+    <row r="69" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -2285,16 +1934,12 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-    </row>
-    <row r="70" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="8"/>
+    </row>
+    <row r="70" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -2304,16 +1949,12 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="8"/>
+    </row>
+    <row r="71" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -2323,16 +1964,12 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-    </row>
-    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="8"/>
+    </row>
+    <row r="72" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -2342,16 +1979,12 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-    </row>
-    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="8"/>
+    </row>
+    <row r="73" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -2361,16 +1994,12 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="8"/>
+    </row>
+    <row r="74" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -2380,16 +2009,12 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="8"/>
+    </row>
+    <row r="75" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -2399,16 +2024,12 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="8"/>
+    </row>
+    <row r="76" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -2418,16 +2039,12 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-    </row>
-    <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="8"/>
+    </row>
+    <row r="77" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -2437,16 +2054,12 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-    </row>
-    <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="8"/>
+    </row>
+    <row r="78" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -2456,16 +2069,12 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="8"/>
+    </row>
+    <row r="79" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -2475,24 +2084,12 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="4">
-        <f>SUM(B8:B79)</f>
-        <v>0</v>
-      </c>
-      <c r="C80" s="4">
-        <f>SUM(C8:C79)</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="14"/>
+    </row>
+    <row r="80" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -2502,18 +2099,12 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-    </row>
-    <row r="81" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="1" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="81" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
       <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -2523,24 +2114,12 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="82" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -2550,16 +2129,12 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-    </row>
-    <row r="83" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -2569,16 +2144,12 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
+    </row>
+    <row r="84" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -2588,16 +2159,12 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
+    </row>
+    <row r="85" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -2607,15 +2174,6 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-    </row>
-    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="15" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2696,13 +2254,13 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2718,13 +2276,13 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>17</v>
+      <c r="A4" s="8" t="s">
+        <v>10</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2740,11 +2298,11 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2760,19 +2318,19 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>18</v>
+      <c r="A6" s="13" t="s">
+        <v>11</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>19</v>
+      <c r="B6" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>20</v>
+      <c r="C6" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
@@ -2790,11 +2348,11 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2889,13 +2447,13 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2911,13 +2469,13 @@
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>21</v>
+      <c r="A4" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2933,11 +2491,11 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2953,19 +2511,19 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>18</v>
+      <c r="A6" s="13" t="s">
+        <v>11</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>19</v>
+      <c r="B6" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>20</v>
+      <c r="C6" s="20" t="s">
+        <v>13</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1"/>
@@ -2983,11 +2541,11 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="28"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
